--- a/tables/crop_classifications/LT_crop_classification_final.xlsx
+++ b/tables/crop_classifications/LT_crop_classification_final.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\data\tables\crop_classifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{45DB41BE-703D-421A-8B13-D467BA820B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1BD963-9841-4D6A-8AB6-A1368CDB331D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="38616" windowHeight="21216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LT_crop_classificion_final" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">LT_crop_classificion_final!$B$1:$G$25</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">LT_crop_classificion_final!$B$1:$G$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,15 +37,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - LT_crop_classificion_final" description="Connection to the 'LT_crop_classificion_final' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - LT_crop_classificion_final" description="Connection to the 'LT_crop_classificion_final' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=LT_crop_classificion_final;Extended Properties=&quot;&quot;" command="SELECT * FROM [LT_crop_classificion_final]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="108">
   <si>
     <t>Ganyklos-pievos virð 5m.</t>
   </si>
@@ -348,12 +348,33 @@
   </si>
   <si>
     <t>Leinen</t>
+  </si>
+  <si>
+    <t>Kraðtovaizdþio elementai</t>
+  </si>
+  <si>
+    <t>Neremiami plotai</t>
+  </si>
+  <si>
+    <t>Aromatiniai augalai</t>
+  </si>
+  <si>
+    <t>Landschaftliche Elemente</t>
+  </si>
+  <si>
+    <t>Nicht gestützte Bereiche</t>
+  </si>
+  <si>
+    <t>Landscape elements</t>
+  </si>
+  <si>
+    <t>Non-supported areas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,23 +433,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -445,6 +467,12 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -459,7 +487,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="6">
       <queryTableField id="1" name="original_name" tableColumnId="1"/>
@@ -478,14 +506,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="LT_crop_classificion_final" displayName="LT_crop_classificion_final" ref="B1:G25" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="LT_crop_classificion_final" displayName="LT_crop_classificion_final" ref="B1:G28" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="crop_name" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="7" uniqueName="7" name="crop_name_de" queryTableFieldId="7" dataDxfId="2"/>
-    <tableColumn id="2" uniqueName="2" name="crop_name_en" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="8" uniqueName="8" name="EC_trans_n" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="3" uniqueName="3" name="EC_hcat_n" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" uniqueName="4" name="EC_hcat_c" queryTableFieldId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="crop_name" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="crop_name_de" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="crop_name_en" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="EC_trans_n" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="EC_hcat_n" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="EC_hcat_c" queryTableFieldId="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -787,11 +815,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,7 +830,7 @@
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -824,7 +852,7 @@
       <c r="F1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -844,7 +872,7 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>3302000000</v>
       </c>
     </row>
@@ -864,7 +892,7 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>3301011501</v>
       </c>
     </row>
@@ -884,7 +912,7 @@
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>3302000000</v>
       </c>
     </row>
@@ -904,7 +932,7 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>3301011503</v>
       </c>
     </row>
@@ -924,7 +952,7 @@
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>3301990000</v>
       </c>
     </row>
@@ -944,7 +972,7 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>3301060400</v>
       </c>
     </row>
@@ -964,7 +992,7 @@
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>3301070000</v>
       </c>
     </row>
@@ -984,7 +1012,7 @@
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>3301010500</v>
       </c>
     </row>
@@ -1004,7 +1032,7 @@
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>3301110000</v>
       </c>
     </row>
@@ -1024,7 +1052,7 @@
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>3301011502</v>
       </c>
     </row>
@@ -1044,7 +1072,7 @@
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>3302000000</v>
       </c>
     </row>
@@ -1064,7 +1092,7 @@
       <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>3301150200</v>
       </c>
     </row>
@@ -1084,7 +1112,7 @@
       <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>3301120000</v>
       </c>
     </row>
@@ -1104,7 +1132,7 @@
       <c r="F15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <v>3306000000</v>
       </c>
     </row>
@@ -1124,7 +1152,7 @@
       <c r="F16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <v>3301010600</v>
       </c>
     </row>
@@ -1144,7 +1172,7 @@
       <c r="F17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <v>3303020000</v>
       </c>
     </row>
@@ -1164,7 +1192,7 @@
       <c r="F18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>3301310800</v>
       </c>
     </row>
@@ -1184,7 +1212,7 @@
       <c r="F19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="5">
         <v>3303990000</v>
       </c>
     </row>
@@ -1204,7 +1232,7 @@
       <c r="F20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>3399000000</v>
       </c>
     </row>
@@ -1224,7 +1252,7 @@
       <c r="F21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>3301290700</v>
       </c>
     </row>
@@ -1244,7 +1272,7 @@
       <c r="F22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="5">
         <v>3301061200</v>
       </c>
     </row>
@@ -1264,7 +1292,7 @@
       <c r="F23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="5">
         <v>3301061000</v>
       </c>
     </row>
@@ -1284,7 +1312,7 @@
       <c r="F24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="5">
         <v>3304000000</v>
       </c>
     </row>
@@ -1304,8 +1332,68 @@
       <c r="F25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="5">
         <v>3301060701</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="5">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="5">
+        <v>3301061200</v>
       </c>
     </row>
   </sheetData>

--- a/tables/crop_classifications/LT_crop_classification_final.xlsx
+++ b/tables/crop_classifications/LT_crop_classification_final.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\data\tables\crop_classifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1BD963-9841-4D6A-8AB6-A1368CDB331D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{45DB41BE-703D-421A-8B13-D467BA820B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46188" yWindow="-108" windowWidth="38616" windowHeight="21216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816"/>
   </bookViews>
   <sheets>
     <sheet name="LT_crop_classificion_final" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">LT_crop_classificion_final!$B$1:$G$28</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">LT_crop_classificion_final!$B$1:$G$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,15 +37,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - LT_crop_classificion_final" description="Connection to the 'LT_crop_classificion_final' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - LT_crop_classificion_final" description="Connection to the 'LT_crop_classificion_final' query in the workbook." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=LT_crop_classificion_final;Extended Properties=&quot;&quot;" command="SELECT * FROM [LT_crop_classificion_final]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>Ganyklos-pievos virð 5m.</t>
   </si>
@@ -348,33 +348,12 @@
   </si>
   <si>
     <t>Leinen</t>
-  </si>
-  <si>
-    <t>Kraðtovaizdþio elementai</t>
-  </si>
-  <si>
-    <t>Neremiami plotai</t>
-  </si>
-  <si>
-    <t>Aromatiniai augalai</t>
-  </si>
-  <si>
-    <t>Landschaftliche Elemente</t>
-  </si>
-  <si>
-    <t>Nicht gestützte Bereiche</t>
-  </si>
-  <si>
-    <t>Landscape elements</t>
-  </si>
-  <si>
-    <t>Non-supported areas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,24 +412,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -467,12 +445,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -487,7 +459,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="9">
     <queryTableFields count="6">
       <queryTableField id="1" name="original_name" tableColumnId="1"/>
@@ -506,14 +478,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="LT_crop_classificion_final" displayName="LT_crop_classificion_final" ref="B1:G28" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="LT_crop_classificion_final" displayName="LT_crop_classificion_final" ref="B1:G25" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="crop_name" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="crop_name_de" queryTableFieldId="7" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="crop_name_en" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="EC_trans_n" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="EC_hcat_n" queryTableFieldId="3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="EC_hcat_c" queryTableFieldId="4" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="crop_name" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="7" uniqueName="7" name="crop_name_de" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="2" uniqueName="2" name="crop_name_en" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="8" uniqueName="8" name="EC_trans_n" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="3" uniqueName="3" name="EC_hcat_n" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" uniqueName="4" name="EC_hcat_c" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -815,11 +787,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,7 +802,7 @@
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -852,7 +824,7 @@
       <c r="F1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -872,7 +844,7 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2">
         <v>3302000000</v>
       </c>
     </row>
@@ -892,7 +864,7 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>3301011501</v>
       </c>
     </row>
@@ -912,7 +884,7 @@
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
         <v>3302000000</v>
       </c>
     </row>
@@ -932,7 +904,7 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>3301011503</v>
       </c>
     </row>
@@ -952,7 +924,7 @@
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>3301990000</v>
       </c>
     </row>
@@ -972,7 +944,7 @@
       <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>3301060400</v>
       </c>
     </row>
@@ -992,7 +964,7 @@
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8">
         <v>3301070000</v>
       </c>
     </row>
@@ -1012,7 +984,7 @@
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>3301010500</v>
       </c>
     </row>
@@ -1032,7 +1004,7 @@
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10">
         <v>3301110000</v>
       </c>
     </row>
@@ -1052,7 +1024,7 @@
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
         <v>3301011502</v>
       </c>
     </row>
@@ -1072,7 +1044,7 @@
       <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
         <v>3302000000</v>
       </c>
     </row>
@@ -1092,7 +1064,7 @@
       <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
         <v>3301150200</v>
       </c>
     </row>
@@ -1112,7 +1084,7 @@
       <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14">
         <v>3301120000</v>
       </c>
     </row>
@@ -1132,7 +1104,7 @@
       <c r="F15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15">
         <v>3306000000</v>
       </c>
     </row>
@@ -1152,7 +1124,7 @@
       <c r="F16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16">
         <v>3301010600</v>
       </c>
     </row>
@@ -1172,7 +1144,7 @@
       <c r="F17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17">
         <v>3303020000</v>
       </c>
     </row>
@@ -1192,7 +1164,7 @@
       <c r="F18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18">
         <v>3301310800</v>
       </c>
     </row>
@@ -1212,7 +1184,7 @@
       <c r="F19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19">
         <v>3303990000</v>
       </c>
     </row>
@@ -1232,7 +1204,7 @@
       <c r="F20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20">
         <v>3399000000</v>
       </c>
     </row>
@@ -1252,7 +1224,7 @@
       <c r="F21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21">
         <v>3301290700</v>
       </c>
     </row>
@@ -1272,7 +1244,7 @@
       <c r="F22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22">
         <v>3301061200</v>
       </c>
     </row>
@@ -1292,7 +1264,7 @@
       <c r="F23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23">
         <v>3301061000</v>
       </c>
     </row>
@@ -1312,7 +1284,7 @@
       <c r="F24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24">
         <v>3304000000</v>
       </c>
     </row>
@@ -1332,68 +1304,8 @@
       <c r="F25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25">
         <v>3301060701</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="5">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="5">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="5">
-        <v>3301061200</v>
       </c>
     </row>
   </sheetData>
